--- a/Job Postings_Data Scientist_London.xlsx
+++ b/Job Postings_Data Scientist_London.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F237"/>
+  <dimension ref="A1:F238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,17 +564,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Data Science Consultant</t>
+          <t>Senior Applied Scientist, Machine Learning, Amazon Transport...</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Capgemini Invent</t>
+          <t>Amazon EU SARL (UK Branch)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -596,22 +596,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Analytics Internship - Undergraduate Placement 2022</t>
+          <t>Senior Applied Scientist - Amazon Advertising EMEA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sainsbury’s DTD</t>
+          <t>Amazon Dev Centre(Scotland)Ltd</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -628,22 +628,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Senior Applied Scientist - Amazon Advertising EMEA</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre(Scotland)Ltd</t>
+          <t>Oliver James Associates</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -660,17 +660,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Principal Data Scientist</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Oliver James Associates</t>
+          <t>Talent International</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -724,17 +724,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Principal Data Scientist</t>
+          <t>Analytics Internship - Undergraduate Placement 2022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Talent International</t>
+          <t>Sainsbury’s DTD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -756,17 +756,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Senior Applied Scientist, Machine Learning, Amazon Transport...</t>
+          <t>Data Science Consultant</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Amazon EU SARL (UK Branch)</t>
+          <t>Capgemini Invent</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -788,22 +788,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Data Science at Elsevier</t>
+          <t>Senior Associate Data Scientists</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Elsevier</t>
+          <t>Financial Conduct Authority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -820,22 +820,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Visual Analytics Consultant</t>
+          <t>Data Science at Elsevier</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Capgemini Invent</t>
+          <t>Elsevier</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -845,14 +845,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Today</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Consultant/ Senior Consultant - Supply Chain Analytics</t>
+          <t>Visual Analytics Consultant</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -884,7 +884,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Asset Analytics - Consultant/ Senior Consultant /Managing Co...</t>
+          <t>Consultant/ Senior Consultant - Supply Chain Analytics</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -916,22 +916,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, Tax Technology</t>
+          <t>Asset Analytics - Consultant/ Senior Consultant /Managing Co...</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>eBay Inc.</t>
+          <t>Capgemini Invent</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
     </row>
@@ -980,22 +980,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Senior Data Scientist, Tax Technology</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Robert Walters</t>
+          <t>eBay Inc.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1005,29 +1005,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ESG Data Scientist</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sanderson Recruitment Plc</t>
+          <t>Morgan McKinley</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1044,22 +1044,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sr. Data Scientist, Customer &amp; Marketing Analytics, Prime Vi...</t>
+          <t>ESG Data Scientist</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre (London) Ltd</t>
+          <t>Sanderson Recruitment Plc</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1081,17 +1081,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Morgan McKinley</t>
+          <t>ACCA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1108,12 +1108,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Data Science Manager, Growth</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Spotify</t>
+          <t>Kin + Carta</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Temporarily Remote in London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1140,22 +1140,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Statistician</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Carrot Pharma Recruitment</t>
+          <t>Robert Walters</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1172,17 +1172,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Network Data Scientist (NOAM) 62274</t>
+          <t>Statistician</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sky</t>
+          <t>Carrot Pharma Recruitment</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1204,22 +1204,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Network Data Scientist 62232</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Kin + Carta</t>
+          <t>Sky</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ACCA</t>
+          <t>Shell</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1268,17 +1268,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Product Manager - Applied AI</t>
+          <t>Network Data Scientist (NOAM) 62274</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Sky</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1300,17 +1300,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Network Data Scientist 62232</t>
+          <t>Product Manager - Applied AI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sky</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1332,22 +1332,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Science Manager, Growth</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Shell</t>
+          <t>Spotify</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Temporarily Remote in London</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1364,22 +1364,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Marketing Analytics Manager</t>
+          <t>Senior Manager Team Lead, Business Analytics &amp; Insights, UK</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Virgin Media</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Walton-on-Thames</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1396,22 +1396,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Manager, Data and Analytics, Financial Services - London</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>LEGO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>London E14</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1428,22 +1428,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Data Science Meteorologist</t>
+          <t>Manager, Data and Analytics, Financial Services - London</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Shell</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London E14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1460,22 +1460,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Senior Manager Team Lead, Business Analytics &amp; Insights, UK</t>
+          <t>Sr. Data Scientist, Customer &amp; Marketing Analytics, Prime Vi...</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pfizer</t>
+          <t>Amazon Dev Centre (London) Ltd</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Walton-on-Thames</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1492,22 +1492,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Head of Analytics and BI Solutions</t>
+          <t>Data Science Meteorologist</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Babcock International</t>
+          <t>Shell</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Remote in London W1U</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1556,22 +1556,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Head of Analytics and BI Solutions</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LEGO</t>
+          <t>Babcock International</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>Remote in London W1U</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1588,17 +1588,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Equities Machine Learning Quantitative Analyst</t>
+          <t>Marketing Analytics Manager</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>Virgin Media</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1613,24 +1613,24 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AI Researcher (Fairness) - Executive Director / Vice Preside...</t>
+          <t>Health Analytics Senior Consultant</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Proclinical</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1684,17 +1684,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fraud Analytics Manager</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Virgin Media</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1716,17 +1716,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Senior Data Science Analyst - Management Reporting &amp; Analysi...</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Virgin Media</t>
+          <t>Bloomberg</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1748,22 +1748,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Director of Statistics and Data Science</t>
+          <t>Senior Fraud Analyst, Machine Learning</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hobson Prior</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Temporarily Remote in London</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1780,17 +1780,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Data Scientist (Associate or VP) - Applied AI for Global Tec...</t>
+          <t>Director of Statistics and Data Science</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Hobson Prior</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1812,7 +1812,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AWM - Data &amp; Analytics - Investment Platform - Data Scientis...</t>
+          <t>AI Researcher (Fairness) - Executive Director / Vice Preside...</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1844,17 +1844,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Staff Site Reliability Engineer (AG-ZWS)</t>
+          <t>AWM - Data &amp; Analytics - Investment Platform - Data Scientis...</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Zscaler</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1876,17 +1876,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Health Analytics Senior Consultant</t>
+          <t>Data Scientist (Associate or VP) - Applied AI for Global Tec...</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Proclinical</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1908,17 +1908,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Senior Data Science Analyst - Management Reporting &amp; Analysi...</t>
+          <t>Insight Analyst/ Data Scientist</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>Outsource UK</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1940,22 +1940,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Senior Fraud Analyst, Machine Learning</t>
+          <t>Equities Machine Learning Quantitative Analyst</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Temporarily Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1972,17 +1972,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, Europe Data Science Strategy</t>
+          <t>Staff Site Reliability Engineer (AG-ZWS)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Zscaler</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2004,17 +2004,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Insight Analyst/ Data Scientist</t>
+          <t>Fraud Analytics Manager</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Outsource UK</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2036,22 +2036,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Analytics Strategy Manager</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Centrica</t>
+          <t>Lloyds Banking Group</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Windsor SL4</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2068,22 +2068,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Executive/Senior Executive - Data Science - Business Modelli...</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>King.com</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London SE1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2100,12 +2100,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Manager, Data and Analytics - Insurance</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Aquent</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London E14</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2132,12 +2132,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Product Owner, Regulatory Reporting / Data Science Vice Pres...</t>
+          <t>Partner Technical Specialist - Data &amp; AI</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Credit Suisse</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2164,17 +2164,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Partner Technical Specialist - Data &amp; AI</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>King.com</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2196,22 +2196,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Manager, Data and Analytics - Insurance</t>
+          <t>Senior Analytics Development Engineer - Arcadis Gen</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>Arcadis</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>London E14</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2228,17 +2228,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Analytics Strategy Manager</t>
+          <t>2022 UK Graduate Data Scientist Career Path</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Lloyds Banking Group</t>
+          <t>Mott MacDonald</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2260,22 +2260,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Machine Learning Scientist - NLP &amp; Recommender Systems - Ass...</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Centrica</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Windsor SL4</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2292,22 +2292,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Executive/Senior Executive - Data Science - Business Modelli...</t>
+          <t>Product Owner, Regulatory Reporting / Data Science Vice Pres...</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>Credit Suisse</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>London SE1</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2324,22 +2324,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Operational Analytics Team Lead</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Betway Group</t>
+          <t>Aquent</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>North London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2356,22 +2356,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Senior Consultant - Machine Learning Engineer</t>
+          <t>Machine Learning Scientist - NLP &amp; Recommender Systems - Ass...</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>London E14</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2388,22 +2388,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Graduate Data Scientist</t>
+          <t>Senior Consultant - Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Give A Grad A Go</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London E14</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2420,22 +2420,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Senior Analytics Development Engineer - Arcadis Gen</t>
+          <t>Operational Analytics Team Lead</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Arcadis</t>
+          <t>Betway Group</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>North London</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2452,22 +2452,22 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Manager - SAP Analytics Cloud Planning</t>
+          <t>Graduate Data Scientist</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>Give A Grad A Go</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>London SE1</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2484,22 +2484,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2022 UK Graduate Data Scientist Career Path</t>
+          <t>Manager - SAP Analytics Cloud Planning</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mott MacDonald</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London SE1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2580,22 +2580,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Analytics Data Science Lead</t>
+          <t>Senior Data Scientist, Europe Data Science Strategy</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>London SE1</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2605,29 +2605,29 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>8 days ago</t>
+          <t>7 days ago</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Applied AI Lead VP - Cross Functional</t>
+          <t>Forensic Data Analytics Assistant Manager</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2644,22 +2644,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Analytics Data Science Lead</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Huntress</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London SE1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2708,17 +2708,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AWS Data Scientist</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Opus Recruitment Solutions</t>
+          <t>career moves group</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2740,22 +2740,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Forensic Data Analytics Assistant Manager</t>
+          <t>AWS Data Scientist</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Opus Recruitment Solutions</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2772,17 +2772,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Applied AI Lead VP - Cross Functional</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>career moves group</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2804,17 +2804,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Applied AI/ML Engineer - Associate</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Huntress</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2824,24 +2824,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>9 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CTO VP Data Scientist</t>
+          <t>Senior Associate Data Analytics &amp; Insights</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Publicis Sapient</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2868,12 +2868,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Senior Associate Data Analytics &amp; Insights</t>
+          <t>CTO VP Data Scientist</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Publicis Sapient</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2900,12 +2900,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Counterparty Credit Risk Data Analytics Senior Analyst</t>
+          <t>Applied AI/ML Engineer - Associate</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Citi</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2925,19 +2925,19 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>10 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Senior Data Science Manager</t>
+          <t>Data Scientist - FX Services - Currencies &amp; Emerging Markets...</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2964,22 +2964,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Analytics &amp; Insights Lead, WW Commercial Sales</t>
+          <t>Senior Data Science Manager</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>AWS EMEA SARL (UK Branch)</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3028,12 +3028,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Data Scientist - FX Services - Currencies &amp; Emerging Markets...</t>
+          <t>Counterparty Credit Risk Data Analytics Senior Analyst</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Citi</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3060,22 +3060,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer - ASR / Automatic Speech Recogniti...</t>
+          <t>Health analytics principal</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Zoom</t>
+          <t>Lane Clark &amp; Peacock</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Remote in London WC1V</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3092,17 +3092,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Manager Data Analytics &amp; Insights</t>
+          <t>AI Research Scientist</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Publicis Sapient</t>
+          <t>Meta</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3124,17 +3124,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Head of Digital Analytics</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Virgin Media</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3156,22 +3156,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Head of Data Science</t>
+          <t>Manager Data Analytics &amp; Insights</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Fruition IT</t>
+          <t>Publicis Sapient</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3188,17 +3188,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Head of Digital Analytics</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Bank of England</t>
+          <t>Virgin Media</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3220,12 +3220,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Head of Data Science</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Fruition IT</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3252,17 +3252,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AI Research Scientist</t>
+          <t>Pre-sales Solution Engineer, BI &amp; Analytics - Tableau</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Meta</t>
+          <t>Salesforce</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3284,17 +3284,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Health analytics principal</t>
+          <t>Analytics &amp; Insights Lead, WW Commercial Sales</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Lane Clark &amp; Peacock</t>
+          <t>AWS EMEA SARL (UK Branch)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3316,17 +3316,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Lead Machine Learning Engineer - Python Spark</t>
+          <t>Senior Data Scientist / Data Science Manager</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Client Server</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3348,22 +3348,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Data Science Manager - Commodities - London</t>
+          <t>Data &amp; Analytics Senior Risk Manager</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Morgan McKinley</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3380,17 +3380,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Senior Data Scientist / Data Science Manager</t>
+          <t>Vice President - Analytics &amp; AI</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Capgemini Invent</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3412,22 +3412,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Software Engineer - C++ / Python - Machine Learning</t>
+          <t>Lead Machine Learning Engineer - Python Spark</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Zoom</t>
+          <t>Client Server</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Remote in London WC1V</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3444,17 +3444,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Vice President - Analytics &amp; AI</t>
+          <t>Data Science Manager - Commodities - London</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Capgemini Invent</t>
+          <t>Morgan McKinley</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3476,22 +3476,22 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics Senior Risk Manager</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Bank of England</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3508,22 +3508,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Pre-sales Solution Engineer, BI &amp; Analytics - Tableau</t>
+          <t>Software Engineer - C++ / Python - Machine Learning</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Salesforce</t>
+          <t>Zoom</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London WC1V</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3540,22 +3540,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Credit Manager (Analytics)</t>
+          <t>Machine Learning Engineer - ASR / Automatic Speech Recogniti...</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Revolut</t>
+          <t>Zoom</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London WC1V</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3565,29 +3565,29 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>12 days ago</t>
+          <t>11 days ago</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Machine Learning/Data Engineer</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Spire Healthcare</t>
+          <t>Explore Group</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Remote in London EC4Y</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3604,17 +3604,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Data Scientist - ESG Quant Strategy</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>Snapchat</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3636,17 +3636,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Fruition IT</t>
+          <t>Robert Walters</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3668,17 +3668,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Consultant, Clinical Data Scientist, HealthTech Products Hub...</t>
+          <t>Head of Data Science</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>Zopa Limited</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3700,22 +3700,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Head of Data Science</t>
+          <t>Data Science Teacher Coach Tutor Trainer</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Zopa Limited</t>
+          <t>Amazing Prospects Ltd</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3732,22 +3732,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Data Science Teacher Coach Tutor Trainer</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Amazing Prospects Ltd</t>
+          <t>Explore Group</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3764,22 +3764,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Consultant, Clinical Data Scientist, HealthTech Products Hub...</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>De Beers Group of Companies</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>London EC1N</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3796,17 +3796,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Snapchat</t>
+          <t>Fruition IT</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3828,22 +3828,22 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Explore Group</t>
+          <t>Spire Healthcare</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London EC4Y</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3860,22 +3860,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Scientist &amp; Machine Learning Research Engineer</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>IQVIA</t>
+          <t>Amazing Prospects Ltd</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Epsom</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3892,22 +3892,22 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Data Scientist &amp; Machine Learning Research Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Amazing Prospects Ltd</t>
+          <t>IQVIA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Epsom</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3924,22 +3924,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Machine Learning/Data Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Explore Group</t>
+          <t>De Beers Group of Companies</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London EC1N</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3956,22 +3956,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Research Assistant / Associate in Human-in-the-loop, Machine...</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Robert Walters</t>
+          <t>Imperial College London</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>South Kensington</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3981,29 +3981,29 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>12 days ago</t>
+          <t>13 days ago</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Research Assistant / Associate in Human-in-the-loop, Machine...</t>
+          <t>Head of Data Science &amp; Machine Learning</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Imperial College London</t>
+          <t>Simply Business</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>South Kensington</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4020,22 +4020,22 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Manager - Advanced Analytics</t>
+          <t>Junior Machine Learning Engineer - HealthTech</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MARS</t>
+          <t>Client Server</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Slough SL1</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4052,22 +4052,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Junior Machine Learning Engineer - HealthTech</t>
+          <t>Credit Manager (Analytics)</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Client Server</t>
+          <t>Revolut</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4084,17 +4084,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Head of Data Science &amp; Machine Learning</t>
+          <t>Associate Director in Machine Learning and Computational Bio...</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Simply Business</t>
+          <t>MSD</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4116,17 +4116,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sr. Data Scientist, Demand Forecasting</t>
+          <t>Data Scientist - ESG Quant Strategy</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Amazon UK Services Ltd.</t>
+          <t>Bloomberg</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4148,17 +4148,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Analytics Data Scientist, Demand Forecasting</t>
+          <t>Lead Data Scientist (Credit)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Amazon UK Services Ltd.</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4180,17 +4180,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Lead Data Scientist (Credit)</t>
+          <t>Data Analytics Lead</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Ascenti</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4212,22 +4212,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Principal - Data Science</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Just eat Takeaway.com</t>
+          <t>Vodafone</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Temporarily Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4244,17 +4244,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Data Analytics Lead</t>
+          <t>Senior Predictive Modeler</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Ascenti</t>
+          <t>Eames Consulting</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4276,22 +4276,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Manager - Advanced Analytics</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Vodafone</t>
+          <t>MARS</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Slough SL1</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4340,22 +4340,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Associate Director in Machine Learning and Computational Bio...</t>
+          <t>Principal - Data Science</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MSD</t>
+          <t>Just eat Takeaway.com</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Temporarily Remote in London</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4372,22 +4372,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Senior Predictive Modeler</t>
+          <t>Senior Manager, Product Owner Analytics &amp; BI</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Eames Consulting</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4397,29 +4397,29 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>13 days ago</t>
+          <t>14 days ago</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Senior Manager, Product Owner Analytics &amp; BI</t>
+          <t>Principal Data Scientist</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Sage</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4436,17 +4436,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Associate, Quantitative Financial Analyst</t>
+          <t>Analytics Data Scientist, Demand Forecasting</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CDC Group</t>
+          <t>Amazon UK Services Ltd.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4468,17 +4468,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Lead Statistician</t>
+          <t>Sr. Data Scientist, Demand Forecasting</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Marks &amp; Spencer</t>
+          <t>Amazon UK Services Ltd.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4500,17 +4500,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Senior Actuary - Machine Learning &amp; Predictive Analytics</t>
+          <t>Associate, Quantitative Financial Analyst</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Eames Consulting</t>
+          <t>CDC Group</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4532,22 +4532,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Principal Data Scientist</t>
+          <t>Senior Actuary - Machine Learning &amp; Predictive Analytics</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sage</t>
+          <t>Eames Consulting</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4564,17 +4564,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Applied Scientist, Commerce Optimisation</t>
+          <t>Lead Statistician</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre (London) Ltd</t>
+          <t>Marks &amp; Spencer</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4589,24 +4589,24 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>15 days ago</t>
+          <t>14 days ago</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Applied AI / ML Lead - Solutions for Digital &amp; Platform Serv...</t>
+          <t>Applied Scientist, Commerce Optimisation</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Amazon Dev Centre (London) Ltd</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4628,17 +4628,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Fixed Income Machine Learning Quantitative Analyst</t>
+          <t>Applied AI / ML Lead - Solutions for Digital &amp; Platform Serv...</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4653,24 +4653,24 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>16 days ago</t>
+          <t>15 days ago</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer (Google Cloud Markets)</t>
+          <t>Fixed Income Machine Learning Quantitative Analyst</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Vodafone</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4685,24 +4685,24 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>18 days ago</t>
+          <t>16 days ago</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Machine Learning Quantitative Analyst</t>
+          <t>Machine Learning Engineer (Google Cloud Markets)</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>Vodafone</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4724,17 +4724,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>C12 Data Scientist</t>
+          <t>Machine Learning Quantitative Analyst</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Citi</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4756,12 +4756,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>C12 Data Scientist</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Marks &amp; Spencer</t>
+          <t>Citi</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4820,17 +4820,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Data Scientist, Contextual Ads</t>
+          <t>Python Software Engineering - Data Science Projects - B and...</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre (London) Ltd</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4852,17 +4852,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Python Software Engineering - Data Science Projects - B and...</t>
+          <t>Data Scientist, Contextual Ads</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Amazon Dev Centre (London) Ltd</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4884,17 +4884,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, Personalisation</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Holland &amp; Barrett</t>
+          <t>Marks &amp; Spencer</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4916,22 +4916,22 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Python Developer / Machine Learning Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Client Server</t>
+          <t>Betway Group</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>North London</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4948,17 +4948,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Senior Applied Machine Learning Scientist</t>
+          <t>Software Engineering - Data Science Projects</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Zimmer Biomet</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4985,17 +4985,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Betway Group</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>North London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5012,17 +5012,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Senior Technical Project Manager - Data Analytics Technology</t>
+          <t>Head of Data Science</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Robert Walters</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5044,22 +5044,22 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Senior Data Scientist, Personalisation</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Holland &amp; Barrett</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5076,22 +5076,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Senior Analytics Engineer</t>
+          <t>Senior Applied Machine Learning Scientist</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Currys</t>
+          <t>Zimmer Biomet</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Hybrid remote in North Acton</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5108,22 +5108,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Senior Marketing Data Scientist</t>
+          <t>Data Scientist, Analytics II</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NatWest Group</t>
+          <t>Expedia Group</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London EC1V</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5140,22 +5140,22 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Fraud and Financial Crime Analytics Manager</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5172,12 +5172,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Data Scientist, Analytics II</t>
+          <t>Senior Technical Project Manager - Data Analytics Technology</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Expedia Group</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>London EC1V</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5236,17 +5236,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Customer Engineer Specialist, Machine Learning</t>
+          <t>Senior Marketing Data Scientist</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Google</t>
+          <t>NatWest Group</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -5268,17 +5268,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Head of Data Science</t>
+          <t>Customer Engineer Specialist, Machine Learning</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Robert Walters</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5300,22 +5300,22 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Software Engineering - Data Science Projects</t>
+          <t>Python Developer / Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Client Server</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5332,22 +5332,22 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Fraud and Financial Crime Analytics Manager</t>
+          <t>Senior Analytics Engineer</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Currys</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>Hybrid remote in North Acton</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5364,22 +5364,22 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Senior Data Scientist: Forecasting</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Field</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5389,29 +5389,29 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>20 days ago</t>
+          <t>19 days ago</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Financial Modelling Senior Manager (Deals Insights &amp; Analyti...</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Department for Work and Pensions</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5428,22 +5428,22 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Eames Consulting</t>
+          <t>Department for Work and Pensions</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5460,17 +5460,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Associate Principal, Data Science Strategy Consulting - EU W...</t>
+          <t>Testing Data Scientist</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>IQVIA</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5492,12 +5492,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics Manager (Deals Insights &amp; Analytics)</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Eames Consulting</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5524,17 +5524,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Global Senior Analytics and Media Manager</t>
+          <t>Data Science Degree Apprenticeship EC1-2</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Amazon Online UK Limited</t>
+          <t>Amey plc</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5556,17 +5556,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Data Science Degree Apprenticeship EC1-2</t>
+          <t>Data Scientist III, Analytics</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Amey plc</t>
+          <t>Egencia</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5588,12 +5588,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Testing Data Scientist</t>
+          <t>Senior Data Scientist: Forecasting</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Field</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5620,22 +5620,22 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Finance Analytics - Data Scientist</t>
+          <t>Global Senior Analytics and Media Manager</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MARS</t>
+          <t>Amazon Online UK Limited</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Slough SL1</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5684,17 +5684,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Financial Modelling Senior Manager (Deals Insights &amp; Analyti...</t>
+          <t>Associate Principal, Data Science Strategy Consulting - EU W...</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>IQVIA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5716,17 +5716,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Data Scientist III, Analytics</t>
+          <t>Data &amp; Analytics Manager (Deals Insights &amp; Analytics)</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Egencia</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5748,17 +5748,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Financial Modelling Senior Associate (Deals Insights &amp; Analy...</t>
+          <t>Lecturer - Data Science and Analytics</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>University of Westminster</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5780,22 +5780,22 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Data Scientist Apprentice</t>
+          <t>Financial Modelling Manager (Deals Insights &amp; Analytics)</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>QA Apprenticeships</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>London SE1</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5812,17 +5812,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Consultant/ Senior Consultant- Intelligent Automation</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Capgemini Invent</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5844,22 +5844,22 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>IT&amp;D Director, Global Data and Analytics</t>
+          <t>Data Science Consultant - Artificial Intelligence Advisory</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Reckitt</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Slough SL1</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5876,7 +5876,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Customer Analytics Data Scientist Senior Associate</t>
+          <t>Customer Analytics Data Scientist, Manager</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5908,17 +5908,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Lead Decision Scientist</t>
+          <t>Senior Applied Scientist - Video Advertising, Vivid (Video C...</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Vanquis Bank</t>
+          <t>Amazon Dev Centre(Scotland)Ltd</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5940,7 +5940,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Analytics - Senior Associate / Manager</t>
+          <t>Customer Analytics Data Scientist Senior Associate</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5972,17 +5972,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Solutions Architect - AI &amp; Machine Learning</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -6004,22 +6004,22 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>AI/ML Engineer</t>
+          <t>IT&amp;D Director, Global Data and Analytics</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Reckitt</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Slough SL1</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6036,7 +6036,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Finance Analytics - Data Scientist</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Slough SL1+1 location</t>
+          <t>Slough SL1</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6068,17 +6068,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Data Science Consultant - Artificial Intelligence Advisory</t>
+          <t>Consultant/ Senior Consultant- Intelligent Automation</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Capgemini Invent</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -6164,22 +6164,22 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Customer Analytics Data Scientist, Manager</t>
+          <t>AI/ML Engineer</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6196,17 +6196,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Machine Learning Research Scientist</t>
+          <t>Data &amp; Analytics Senior Associate (Deals Insights &amp; Analytic...</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6260,17 +6260,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Solutions Architect - AI &amp; Machine Learning</t>
+          <t>Analytics - Senior Associate / Manager</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6292,17 +6292,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Senior Applied Scientist - Video Advertising, Vivid (Video C...</t>
+          <t>Lead Decision Scientist</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre(Scotland)Ltd</t>
+          <t>Vanquis Bank</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6324,17 +6324,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Lecturer - Data Science and Analytics</t>
+          <t>Financial Modelling Senior Associate (Deals Insights &amp; Analy...</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>University of Westminster</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6356,17 +6356,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics Senior Associate (Deals Insights &amp; Analytic...</t>
+          <t>Machine Learning Research Scientist</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6388,22 +6388,22 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Financial Modelling Manager (Deals Insights &amp; Analytics)</t>
+          <t>Data Scientist Apprentice</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>QA Apprenticeships</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London SE1</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6420,17 +6420,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Manager, Lead Data Scientist, HealthTech Products Hub, SAMA,...</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6484,17 +6484,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Computer Vision Research Scientist</t>
+          <t>Senior Analyst - Decision Scientist</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Vanquis Bank</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6516,17 +6516,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sr. Manager, Analytics, Amazon Ads</t>
+          <t>2022 Bloomberg Apprenticeship: Artificial Intelligence Level...</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Amazon Online UK Limited</t>
+          <t>Bloomberg</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6548,22 +6548,22 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2022 Bloomberg Apprenticeship: Artificial Intelligence Level...</t>
+          <t>Data Science Manager</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>Vanquis Bank</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -6580,22 +6580,22 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Big Data Engineer</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ACCOR</t>
+          <t>PokerStars</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>London W6</t>
+          <t>London W1B</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6612,22 +6612,22 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Big Data Engineer</t>
+          <t>Sr. Manager, Analytics, Amazon Ads</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>PokerStars</t>
+          <t>Amazon Online UK Limited</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>London W1B</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6644,22 +6644,22 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Data Science Manager</t>
+          <t>Computer Vision Research Scientist</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Vanquis Bank</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6676,22 +6676,22 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Senior Analyst - Decision Scientist</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Vanquis Bank</t>
+          <t>ACCOR</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London W6</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6708,22 +6708,22 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>MARS</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Slough SL1+1 location</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6740,17 +6740,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Postdoctoral Scientist - Machine Learning, [UK]</t>
+          <t>Manager, Lead Data Scientist, HealthTech Products Hub, SAMA,...</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre (London) Ltd</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>24 days ago</t>
+          <t>22 days ago</t>
         </is>
       </c>
     </row>
@@ -6804,17 +6804,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Principal/Senior Principal, Data Science Strategy Consulting...</t>
+          <t>Postdoctoral Scientist - Machine Learning, [UK]</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>IQVIA</t>
+          <t>Amazon Dev Centre (London) Ltd</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6836,12 +6836,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Principal/Senior Principal, Data Science Strategy Consulting...</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Aviva</t>
+          <t>IQVIA</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6861,29 +6861,29 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>25 days ago</t>
+          <t>24 days ago</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Tech Lead Machine Learning Data Engineer - Recommendations (...</t>
+          <t>Postdoctoral Training Fellow in Data Science (ID:207)</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Shopify</t>
+          <t>The Institute of Cancer Research</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>Sutton SM2</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -6900,12 +6900,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Postdoctoral Training Fellow in Data Science (ID:207)</t>
+          <t>Senior Data Scientist, Experience</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>The Institute of Cancer Research</t>
+          <t>Spotify</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Sutton SM2</t>
+          <t>Temporarily Remote in London</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -6932,22 +6932,22 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, Experience</t>
+          <t>Tech Lead Machine Learning Data Engineer - Recommendations (...</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Spotify</t>
+          <t>Shopify</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Temporarily Remote in London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6964,17 +6964,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Machine Learning Scientist - Recruiting Engine</t>
+          <t>Big Data Software Engineer</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre(Scotland)Ltd</t>
+          <t>Henderson Scott</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Knight Frank</t>
+          <t>Aviva</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>London W1U</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7028,22 +7028,22 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Big Data Software Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Henderson Scott</t>
+          <t>Knight Frank</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London W1U</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7060,22 +7060,22 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Data Scientist - Medical Technologies</t>
+          <t>Machine Learning Scientist - Recruiting Engine</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Robert Walters</t>
+          <t>Amazon Dev Centre(Scotland)Ltd</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -7085,24 +7085,24 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>26 days ago</t>
+          <t>25 days ago</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Data Scientist - Python, Wholesale Banking Advanced Analytic...</t>
+          <t>Data Scientist - Medical Technologies</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Michael Page UK</t>
+          <t>Robert Walters</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7156,22 +7156,22 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Data Engineer - SQL, Wholesale Banking Advanced Analytics</t>
+          <t>Technical Program Manager - Applied AI</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Michael Page UK</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -7220,22 +7220,22 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Technical Program Manager - Applied AI</t>
+          <t>Data Engineer - SQL, Wholesale Banking Advanced Analytics</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Michael Page UK</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -7252,22 +7252,22 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Senior Applied Research Scientist - Applied Innovation of AI</t>
+          <t>Data Scientist - Python, Wholesale Banking Advanced Analytic...</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Michael Page UK</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -7277,29 +7277,29 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>27 days ago</t>
+          <t>26 days ago</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Teaching Fellow Position in Geo-Energy with Data Science and...</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Capita</t>
+          <t>Imperial College London</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>South Kensington</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -7316,17 +7316,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Machine Learning - Engineering Director</t>
+          <t>Senior Data Scientist Chemicals</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Facebook App</t>
+          <t>Risk Solutions</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7348,22 +7348,22 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Teaching Fellow Position in Geo-Energy with Data Science and...</t>
+          <t>Senior Applied Research Scientist - Applied Innovation of AI</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Imperial College London</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>South Kensington</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -7380,22 +7380,22 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Head of Data Science</t>
+          <t>Statistician (Consumer data) / Data Scientist</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Ovo Energy Limited</t>
+          <t>Mintel</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Temporarily Remote in London</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -7412,22 +7412,22 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Statistician (Consumer data) / Data Scientist</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Mintel</t>
+          <t>Capita</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Temporarily Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -7444,17 +7444,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Senior Data Scientist Chemicals</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Risk Solutions</t>
+          <t>QBE</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7508,17 +7508,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Machine Learning - Engineering Director</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>QBE</t>
+          <t>Facebook App</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7572,17 +7572,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Head of Data Science</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Eames Consulting</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7604,12 +7604,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Senior Manager, Data and Analytics, Financial Services - Lon...</t>
+          <t>Digital Audit Advanced Analytics Senior Manager</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>London E14</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -7636,17 +7636,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Senior Data Scientist Engineer</t>
+          <t>Head of Data Science &amp; Data Analytics</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Eames Consulting</t>
+          <t>Oliver James Associates</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7668,22 +7668,22 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Global Director of Data Science – Luxury Fashion Retailer</t>
+          <t>Head of Data Science</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Salt Recruitment</t>
+          <t>Ovo Energy Limited</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Greater London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -7700,22 +7700,22 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Senior Data Machine Learning Platform Engineer (Remote, Euro...</t>
+          <t>Senior Manager, Data and Analytics, Financial Services - Lon...</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Shopify</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London E14</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7732,22 +7732,22 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Head of Data Science &amp; Data Analytics</t>
+          <t>Quantitative developer</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Oliver James Associates</t>
+          <t>Centrica</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Windsor SL4</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -7764,12 +7764,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Consultant, Design Quality Engineer, Healthcare Analytics, C...</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Eames Consulting</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -7796,22 +7796,22 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Head of Data Science</t>
+          <t>Senior Data Machine Learning Platform Engineer (Remote, Euro...</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>OVO Energy</t>
+          <t>Shopify</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7860,22 +7860,22 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Quantitative developer</t>
+          <t>Senior Data Scientist Engineer</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centrica</t>
+          <t>Eames Consulting</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Windsor SL4</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -7892,22 +7892,22 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Digital Audit Advanced Analytics Senior Manager</t>
+          <t>Global Director of Data Science – Luxury Fashion Retailer</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Salt Recruitment</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Greater London</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7924,17 +7924,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Consultant, Design Quality Engineer, Healthcare Analytics, C...</t>
+          <t>Head of Data Science</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>Jacobs</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7956,17 +7956,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Senior Associate, Data Science</t>
+          <t>Head of Data Science</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Bain &amp; Company</t>
+          <t>OVO Energy</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>29 days ago</t>
+          <t>28 days ago</t>
         </is>
       </c>
     </row>
@@ -8012,6 +8012,38 @@
         </is>
       </c>
       <c r="F237" t="inlineStr">
+        <is>
+          <t>29 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Senior Associate, Data Science</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Bain &amp; Company</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
         <is>
           <t>29 days ago</t>
         </is>

--- a/Job Postings_Data Scientist_London.xlsx
+++ b/Job Postings_Data Scientist_London.xlsx
@@ -2388,22 +2388,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Senior Consultant - Machine Learning Engineer</t>
+          <t>Senior Data Scientist, Europe Data Science Strategy</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>London E14</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2484,7 +2484,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Manager - SAP Analytics Cloud Planning</t>
+          <t>Manager - Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>London SE1</t>
+          <t>London E14</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2516,7 +2516,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Manager - Machine Learning Engineer</t>
+          <t>Manager - SAP Analytics Cloud Planning</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>London E14</t>
+          <t>London SE1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2580,22 +2580,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, Europe Data Science Strategy</t>
+          <t>Senior Consultant - Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London E14</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2612,22 +2612,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Forensic Data Analytics Assistant Manager</t>
+          <t>Analytics Data Science Lead</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London SE1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2644,22 +2644,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Analytics Data Science Lead</t>
+          <t>Machine Learning Engineer - FreeWheel</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>Comcast</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>London SE1</t>
+          <t>London WC2H</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2676,22 +2676,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer - FreeWheel</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Comcast</t>
+          <t>career moves group</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>London WC2H</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2708,17 +2708,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>AWS Data Scientist</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>career moves group</t>
+          <t>Opus Recruitment Solutions</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2740,17 +2740,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AWS Data Scientist</t>
+          <t>Applied AI Lead VP - Cross Functional</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Opus Recruitment Solutions</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2772,17 +2772,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Applied AI Lead VP - Cross Functional</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Huntress</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2804,22 +2804,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Forensic Data Analytics Assistant Manager</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Huntress</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3060,17 +3060,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Health analytics principal</t>
+          <t>AI Research Scientist</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Lane Clark &amp; Peacock</t>
+          <t>Meta</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3092,17 +3092,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AI Research Scientist</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Meta</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3124,17 +3124,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Manager Data Analytics &amp; Insights</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Publicis Sapient</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3156,17 +3156,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Manager Data Analytics &amp; Insights</t>
+          <t>Head of Digital Analytics</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Publicis Sapient</t>
+          <t>Virgin Media</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3188,22 +3188,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Head of Digital Analytics</t>
+          <t>Head of Data Science</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Virgin Media</t>
+          <t>Fruition IT</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3220,22 +3220,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Head of Data Science</t>
+          <t>Pre-sales Solution Engineer, BI &amp; Analytics - Tableau</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Fruition IT</t>
+          <t>Salesforce</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3252,17 +3252,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Pre-sales Solution Engineer, BI &amp; Analytics - Tableau</t>
+          <t>Analytics &amp; Insights Lead, WW Commercial Sales</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Salesforce</t>
+          <t>AWS EMEA SARL (UK Branch)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3284,17 +3284,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Analytics &amp; Insights Lead, WW Commercial Sales</t>
+          <t>Senior Data Scientist / Data Science Manager</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AWS EMEA SARL (UK Branch)</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3316,22 +3316,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Senior Data Scientist / Data Science Manager</t>
+          <t>Data &amp; Analytics Senior Risk Manager</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3348,22 +3348,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics Senior Risk Manager</t>
+          <t>Vice President - Analytics &amp; AI</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Capgemini Invent</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3380,22 +3380,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Vice President - Analytics &amp; AI</t>
+          <t>Machine Learning Engineer - ASR / Automatic Speech Recogniti...</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Capgemini Invent</t>
+          <t>Zoom</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London WC1V</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3412,17 +3412,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Lead Machine Learning Engineer - Python Spark</t>
+          <t>Health analytics principal</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Client Server</t>
+          <t>Lane Clark &amp; Peacock</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3444,17 +3444,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Data Science Manager - Commodities - London</t>
+          <t>Lead Machine Learning Engineer - Python Spark</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Morgan McKinley</t>
+          <t>Client Server</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3540,12 +3540,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer - ASR / Automatic Speech Recogniti...</t>
+          <t>Data Science Manager - Commodities - London</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Zoom</t>
+          <t>Morgan McKinley</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Remote in London WC1V</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3572,17 +3572,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Machine Learning/Data Engineer</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Explore Group</t>
+          <t>Snapchat</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3604,22 +3604,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Data Scientist &amp; Machine Learning Research Engineer</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Snapchat</t>
+          <t>Amazing Prospects Ltd</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Epsom</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3636,17 +3636,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Head of Data Science</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Robert Walters</t>
+          <t>Zopa Limited</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3668,17 +3668,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Head of Data Science</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Zopa Limited</t>
+          <t>Robert Walters</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3700,22 +3700,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Data Science Teacher Coach Tutor Trainer</t>
+          <t>Machine Learning/Data Engineer</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Amazing Prospects Ltd</t>
+          <t>Explore Group</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3860,7 +3860,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Data Scientist &amp; Machine Learning Research Engineer</t>
+          <t>Data Science Teacher Coach Tutor Trainer</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Epsom</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3897,17 +3897,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>IQVIA</t>
+          <t>De Beers Group of Companies</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London EC1N</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3929,17 +3929,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>De Beers Group of Companies</t>
+          <t>IQVIA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>London EC1N</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3956,22 +3956,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Research Assistant / Associate in Human-in-the-loop, Machine...</t>
+          <t>Data Scientist - ESG Quant Strategy</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Imperial College London</t>
+          <t>Bloomberg</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>South Kensington</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3988,12 +3988,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Head of Data Science &amp; Machine Learning</t>
+          <t>Credit Manager (Analytics)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Simply Business</t>
+          <t>Revolut</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4020,12 +4020,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Junior Machine Learning Engineer - HealthTech</t>
+          <t>Associate Director in Machine Learning and Computational Bio...</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Client Server</t>
+          <t>MSD</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4052,17 +4052,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Credit Manager (Analytics)</t>
+          <t>Lead Data Scientist (Credit)</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Revolut</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4084,22 +4084,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Associate Director in Machine Learning and Computational Bio...</t>
+          <t>Principal - Data Science</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MSD</t>
+          <t>Just eat Takeaway.com</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Temporarily Remote in London</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4116,22 +4116,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Data Scientist - ESG Quant Strategy</t>
+          <t>Research Assistant / Associate in Human-in-the-loop, Machine...</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>Imperial College London</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>South Kensington</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4148,22 +4148,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Lead Data Scientist (Credit)</t>
+          <t>Junior Machine Learning Engineer - HealthTech</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Client Server</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4180,17 +4180,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Data Analytics Lead</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ascenti</t>
+          <t>Vodafone</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4212,17 +4212,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Head of Data Science &amp; Machine Learning</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Vodafone</t>
+          <t>Simply Business</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4244,17 +4244,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Senior Predictive Modeler</t>
+          <t>Data Analytics Lead</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Eames Consulting</t>
+          <t>Ascenti</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4276,22 +4276,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Manager - Advanced Analytics</t>
+          <t>Senior Predictive Modeler</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MARS</t>
+          <t>Eames Consulting</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Slough SL1</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4308,22 +4308,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Data Science Manager</t>
+          <t>Manager - Advanced Analytics</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>MARS</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>Slough SL1</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4340,22 +4340,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Principal - Data Science</t>
+          <t>Data Science Manager</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Just eat Takeaway.com</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Temporarily Remote in London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4372,22 +4372,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Senior Manager, Product Owner Analytics &amp; BI</t>
+          <t>Sr. Data Scientist, Demand Forecasting</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Amazon UK Services Ltd.</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4404,12 +4404,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Principal Data Scientist</t>
+          <t>Analytics Data Scientist, Demand Forecasting</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sage</t>
+          <t>Amazon UK Services Ltd.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4436,22 +4436,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Analytics Data Scientist, Demand Forecasting</t>
+          <t>Senior Manager, Product Owner Analytics &amp; BI</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Amazon UK Services Ltd.</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4468,17 +4468,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sr. Data Scientist, Demand Forecasting</t>
+          <t>Associate, Quantitative Financial Analyst</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Amazon UK Services Ltd.</t>
+          <t>CDC Group</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4500,17 +4500,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Associate, Quantitative Financial Analyst</t>
+          <t>Lead Statistician</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CDC Group</t>
+          <t>Marks &amp; Spencer</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4532,22 +4532,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Senior Actuary - Machine Learning &amp; Predictive Analytics</t>
+          <t>Principal Data Scientist</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Eames Consulting</t>
+          <t>Sage</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4564,17 +4564,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Lead Statistician</t>
+          <t>Senior Actuary - Machine Learning &amp; Predictive Analytics</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Marks &amp; Spencer</t>
+          <t>Eames Consulting</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4596,17 +4596,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Applied Scientist, Commerce Optimisation</t>
+          <t>Applied AI / ML Lead - Solutions for Digital &amp; Platform Serv...</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre (London) Ltd</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4628,17 +4628,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Applied AI / ML Lead - Solutions for Digital &amp; Platform Serv...</t>
+          <t>Applied Scientist, Commerce Optimisation</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Amazon Dev Centre (London) Ltd</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4692,17 +4692,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer (Google Cloud Markets)</t>
+          <t>Machine Learning Quantitative Analyst</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Vodafone</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4724,17 +4724,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Machine Learning Quantitative Analyst</t>
+          <t>Data Scientist, Contextual Ads</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>Amazon Dev Centre (London) Ltd</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4756,12 +4756,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>C12 Data Scientist</t>
+          <t>Machine Learning Engineer (Google Cloud Markets)</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Citi</t>
+          <t>Vodafone</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4788,17 +4788,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Senior Analytics and Media Manager, Industry Expert</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Amazon Online UK Limited</t>
+          <t>Marks &amp; Spencer</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4820,12 +4820,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Python Software Engineering - Data Science Projects - B and...</t>
+          <t>C12 Data Scientist</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Citi</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4852,12 +4852,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Data Scientist, Contextual Ads</t>
+          <t>Senior Analytics and Media Manager, Industry Expert</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre (London) Ltd</t>
+          <t>Amazon Online UK Limited</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4884,12 +4884,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Python Software Engineering - Data Science Projects - B and...</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Marks &amp; Spencer</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4916,22 +4916,22 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Senior Applied Machine Learning Scientist</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Betway Group</t>
+          <t>Zimmer Biomet</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>North London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4948,17 +4948,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Software Engineering - Data Science Projects</t>
+          <t>Senior Marketing Data Scientist</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>NatWest Group</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4980,22 +4980,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Customer Engineer Specialist, Machine Learning</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5012,22 +5012,22 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Head of Data Science</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Robert Walters</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5044,17 +5044,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, Personalisation</t>
+          <t>Software Engineering - Data Science Projects</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Holland &amp; Barrett</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5076,22 +5076,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Senior Applied Machine Learning Scientist</t>
+          <t>Fraud and Financial Crime Analytics Manager</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Zimmer Biomet</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5108,22 +5108,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Data Scientist, Analytics II</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Expedia Group</t>
+          <t>Betway Group</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>London EC1V</t>
+          <t>North London</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5140,22 +5140,22 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Fraud and Financial Crime Analytics Manager</t>
+          <t>Senior Data Scientist, Personalisation</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Holland &amp; Barrett</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5172,22 +5172,22 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Senior Technical Project Manager - Data Analytics Technology</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5204,22 +5204,22 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Analytics &amp; Data Science Lead</t>
+          <t>Python Developer / Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Client Server</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5236,22 +5236,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Senior Marketing Data Scientist</t>
+          <t>Senior Analytics Engineer</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NatWest Group</t>
+          <t>Currys</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in North Acton</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5268,22 +5268,22 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Customer Engineer Specialist, Machine Learning</t>
+          <t>Data Scientist, Analytics II</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Google</t>
+          <t>Expedia Group</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London EC1V</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5300,22 +5300,22 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Python Developer / Machine Learning Engineer</t>
+          <t>Head of Data Science</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Client Server</t>
+          <t>Robert Walters</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5332,22 +5332,22 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Senior Analytics Engineer</t>
+          <t>Senior Technical Project Manager - Data Analytics Technology</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Currys</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Hybrid remote in North Acton</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5364,22 +5364,22 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Analytics &amp; Data Science Lead</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5396,17 +5396,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Financial Modelling Senior Manager (Deals Insights &amp; Analyti...</t>
+          <t>Data Science Degree Apprenticeship EC1-2</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Amey plc</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5428,22 +5428,22 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Department for Work and Pensions</t>
+          <t>Eames Consulting</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5460,17 +5460,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Testing Data Scientist</t>
+          <t>Global Senior Analytics and Media Manager</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Amazon Online UK Limited</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5492,12 +5492,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Testing Data Scientist</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Eames Consulting</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5524,22 +5524,22 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Data Science Degree Apprenticeship EC1-2</t>
+          <t>Senior ML Engineer</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Amey plc</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5556,17 +5556,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Data Scientist III, Analytics</t>
+          <t>Data &amp; Analytics Manager (Deals Insights &amp; Analytics)</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Egencia</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5620,17 +5620,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Global Senior Analytics and Media Manager</t>
+          <t>Financial Modelling Senior Manager (Deals Insights &amp; Analyti...</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Amazon Online UK Limited</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5652,22 +5652,22 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Senior ML Engineer</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Department for Work and Pensions</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5716,17 +5716,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics Manager (Deals Insights &amp; Analytics)</t>
+          <t>Data Scientist III, Analytics</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Egencia</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5748,17 +5748,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Lecturer - Data Science and Analytics</t>
+          <t>Lead Decision Scientist</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>University of Westminster</t>
+          <t>Vanquis Bank</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5780,17 +5780,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Financial Modelling Manager (Deals Insights &amp; Analytics)</t>
+          <t>Senior Applied Scientist - Video Advertising, Vivid (Video C...</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Amazon Dev Centre(Scotland)Ltd</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5812,22 +5812,22 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>AI/ML Engineer</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5844,7 +5844,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Data Science Consultant - Artificial Intelligence Advisory</t>
+          <t>Analytics - Senior Associate / Manager</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5908,17 +5908,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Senior Applied Scientist - Video Advertising, Vivid (Video C...</t>
+          <t>Lecturer - Data Science and Analytics</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre(Scotland)Ltd</t>
+          <t>University of Westminster</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5940,7 +5940,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Customer Analytics Data Scientist Senior Associate</t>
+          <t>Data &amp; Analytics Senior Associate (Deals Insights &amp; Analytic...</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5972,17 +5972,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Solutions Architect - AI &amp; Machine Learning</t>
+          <t>Customer Analytics Data Scientist Senior Associate</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -6004,12 +6004,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>IT&amp;D Director, Global Data and Analytics</t>
+          <t>Finance Analytics - Data Scientist</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Reckitt</t>
+          <t>MARS</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6036,22 +6036,22 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Finance Analytics - Data Scientist</t>
+          <t>Advanced Analytics - Manager</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MARS</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Slough SL1</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6068,17 +6068,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Consultant/ Senior Consultant- Intelligent Automation</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Capgemini Invent</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -6100,17 +6100,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Healthcare Analytics Senior Manager</t>
+          <t>Solutions Architect - AI &amp; Machine Learning</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -6132,7 +6132,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Advanced Analytics - Manager</t>
+          <t>Data Science Consultant - Artificial Intelligence Advisory</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6164,22 +6164,22 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>AI/ML Engineer</t>
+          <t>Data Scientist Apprentice</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>QA Apprenticeships</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>London SE1</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6196,17 +6196,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics Senior Associate (Deals Insights &amp; Analytic...</t>
+          <t>Head of Analytics</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6228,22 +6228,22 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Head of Analytics</t>
+          <t>IT&amp;D Director, Global Data and Analytics</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Reckitt</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Slough SL1</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6260,17 +6260,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Analytics - Senior Associate / Manager</t>
+          <t>Consultant/ Senior Consultant- Intelligent Automation</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Capgemini Invent</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6292,17 +6292,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Lead Decision Scientist</t>
+          <t>Financial Modelling Manager (Deals Insights &amp; Analytics)</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Vanquis Bank</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6356,17 +6356,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Machine Learning Research Scientist</t>
+          <t>Healthcare Analytics Senior Manager</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6388,22 +6388,22 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Data Scientist Apprentice</t>
+          <t>Machine Learning Research Scientist</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>QA Apprenticeships</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>London SE1</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6420,17 +6420,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Manager, Lead Data Scientist, HealthTech Products Hub, SAMA,...</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6452,22 +6452,22 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Director AI/ML Engineer for Computer Vision</t>
+          <t>Senior Analyst - Decision Scientist</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Vanquis Bank</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -6484,17 +6484,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Senior Analyst - Decision Scientist</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Vanquis Bank</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6516,22 +6516,22 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2022 Bloomberg Apprenticeship: Artificial Intelligence Level...</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>MARS</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Slough SL1+1 location</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -6580,22 +6580,22 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Big Data Engineer</t>
+          <t>2022 Bloomberg Apprenticeship: Artificial Intelligence Level...</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>PokerStars</t>
+          <t>Bloomberg</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>London W1B</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6612,22 +6612,22 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sr. Manager, Analytics, Amazon Ads</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Amazon Online UK Limited</t>
+          <t>ACCOR</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London W6</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6644,22 +6644,22 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Computer Vision Research Scientist</t>
+          <t>Big Data Engineer</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>PokerStars</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London W1B</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6676,22 +6676,22 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Director AI/ML Engineer for Computer Vision</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ACCOR</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>London W6</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6708,22 +6708,22 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Computer Vision Research Scientist</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MARS</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Slough SL1+1 location</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6740,17 +6740,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Manager, Lead Data Scientist, HealthTech Products Hub, SAMA,...</t>
+          <t>Sr. Manager, Analytics, Amazon Ads</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>Amazon Online UK Limited</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6868,22 +6868,22 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Postdoctoral Training Fellow in Data Science (ID:207)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>The Institute of Cancer Research</t>
+          <t>Aviva</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Sutton SM2</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -6900,22 +6900,22 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, Experience</t>
+          <t>Tech Lead Machine Learning Data Engineer - Recommendations (...</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Spotify</t>
+          <t>Shopify</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Temporarily Remote in London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -6932,22 +6932,22 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Tech Lead Machine Learning Data Engineer - Recommendations (...</t>
+          <t>Postdoctoral Training Fellow in Data Science (ID:207)</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Shopify</t>
+          <t>The Institute of Cancer Research</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>Sutton SM2</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6964,17 +6964,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Big Data Software Engineer</t>
+          <t>Machine Learning Scientist - Recruiting Engine</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Henderson Scott</t>
+          <t>Amazon Dev Centre(Scotland)Ltd</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6996,22 +6996,22 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Big Data Software Engineer</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Aviva</t>
+          <t>Henderson Scott</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7060,22 +7060,22 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Machine Learning Scientist - Recruiting Engine</t>
+          <t>Senior Data Scientist, Experience</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre(Scotland)Ltd</t>
+          <t>Spotify</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Temporarily Remote in London</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -7092,17 +7092,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Data Scientist - Medical Technologies</t>
+          <t>Data Scientist - Python, Wholesale Banking Advanced Analytic...</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Robert Walters</t>
+          <t>Michael Page UK</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7156,17 +7156,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Technical Program Manager - Applied AI</t>
+          <t>Director - Intelligent Industry Analytics</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Capgemini Invent</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -7188,22 +7188,22 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Director - Intelligent Industry Analytics</t>
+          <t>Data Scientist - Medical Technologies</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Capgemini Invent</t>
+          <t>Robert Walters</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7220,22 +7220,22 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Data Engineer - SQL, Wholesale Banking Advanced Analytics</t>
+          <t>Technical Program Manager - Applied AI</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Michael Page UK</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -7252,7 +7252,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Data Scientist - Python, Wholesale Banking Advanced Analytic...</t>
+          <t>Data Engineer - SQL, Wholesale Banking Advanced Analytics</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -7284,22 +7284,22 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Teaching Fellow Position in Geo-Energy with Data Science and...</t>
+          <t>Senior Data Scientist Chemicals</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Imperial College London</t>
+          <t>Risk Solutions</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>South Kensington</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -7316,17 +7316,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Senior Data Scientist Chemicals</t>
+          <t>Data Science Lead</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Risk Solutions</t>
+          <t>Eames Consulting</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7380,22 +7380,22 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Statistician (Consumer data) / Data Scientist</t>
+          <t>Teaching Fellow Position in Geo-Energy with Data Science and...</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Mintel</t>
+          <t>Imperial College London</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Temporarily Remote in London</t>
+          <t>South Kensington</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -7412,22 +7412,22 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Statistician (Consumer data) / Data Scientist</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Capita</t>
+          <t>Mintel</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Temporarily Remote in London</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -7449,12 +7449,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>QBE</t>
+          <t>Capita</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7476,22 +7476,22 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Internal Audit, Data Analytics Analyst</t>
+          <t>Machine Learning - Engineering Director</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>BlackRock</t>
+          <t>Facebook App</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>London EC4R</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -7508,17 +7508,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Machine Learning - Engineering Director</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Facebook App</t>
+          <t>QBE</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7540,22 +7540,22 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Data Science Lead</t>
+          <t>Internal Audit, Data Analytics Analyst</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Eames Consulting</t>
+          <t>BlackRock</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London EC4R</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -7572,17 +7572,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Head of Data Science &amp; Data Analytics</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Eames Consulting</t>
+          <t>Oliver James Associates</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7604,12 +7604,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Digital Audit Advanced Analytics Senior Manager</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Eames Consulting</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7636,22 +7636,22 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Head of Data Science &amp; Data Analytics</t>
+          <t>Senior Data Machine Learning Platform Engineer (Remote, Euro...</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Oliver James Associates</t>
+          <t>Shopify</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7673,12 +7673,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ovo Energy Limited</t>
+          <t>Jacobs</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7700,22 +7700,22 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Senior Manager, Data and Analytics, Financial Services - Lon...</t>
+          <t>Global Director of Data Science – Luxury Fashion Retailer</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>Salt Recruitment</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>London E14</t>
+          <t>Greater London</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7732,22 +7732,22 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Quantitative developer</t>
+          <t>One Demand Data Analytics (ODDA) Senior Data Products Lead</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centrica</t>
+          <t>MARS</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Windsor SL4</t>
+          <t>London W1D+1 location</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -7764,17 +7764,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Consultant, Design Quality Engineer, Healthcare Analytics, C...</t>
+          <t>Head of Data Science</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>OVO Energy</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7796,22 +7796,22 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Senior Data Machine Learning Platform Engineer (Remote, Euro...</t>
+          <t>Senior Data Scientist Engineer</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Shopify</t>
+          <t>Eames Consulting</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7828,22 +7828,22 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>One Demand Data Analytics (ODDA) Senior Data Products Lead</t>
+          <t>Senior Manager, Data and Analytics, Financial Services - Lon...</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>MARS</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>London W1D+1 location</t>
+          <t>London E14</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -7860,17 +7860,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Senior Data Scientist Engineer</t>
+          <t>Head of Data Science</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Eames Consulting</t>
+          <t>Ovo Energy Limited</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7892,22 +7892,22 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Global Director of Data Science – Luxury Fashion Retailer</t>
+          <t>Digital Audit Advanced Analytics Senior Manager</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Salt Recruitment</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Greater London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7924,22 +7924,22 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Head of Data Science</t>
+          <t>Quantitative developer</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Centrica</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Windsor SL4</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7956,17 +7956,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Head of Data Science</t>
+          <t>Consultant, Design Quality Engineer, Healthcare Analytics, C...</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>OVO Energy</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">

--- a/Job Postings_Data Scientist_London.xlsx
+++ b/Job Postings_Data Scientist_London.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F238"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,22 +468,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Machine Learning Lead</t>
+          <t>Data &amp; Analytics - Principal Consultant</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Samsung Electronics</t>
+          <t>CAPCO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hybrid remote in Staines-upon-Thames</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,22 +500,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior Solution Architect (AI/ML) London, United Kingdom Inf...</t>
+          <t>Analytics Engineering Manager</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Philip Morris International</t>
+          <t>GoCardless</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -532,17 +532,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Senior Data Scientist (User Experience)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adecco UK</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -564,17 +564,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Senior Applied Scientist, Machine Learning, Amazon Transport...</t>
+          <t>AI Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amazon EU SARL (UK Branch)</t>
+          <t>Avanade</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -589,29 +589,29 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>Just posted</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senior Applied Scientist - Amazon Advertising EMEA</t>
+          <t>Technical Specialist Data Scientists</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre(Scotland)Ltd</t>
+          <t>Financial Conduct Authority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,29 +621,29 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>Just posted</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Science roles</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Oliver James Associates</t>
+          <t>Nesta</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -660,22 +660,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Principal Data Scientist</t>
+          <t>Head of Data - Data Science</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Talent International</t>
+          <t>BBC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London W12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -692,17 +692,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sr S&amp;OP Manager</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Amazon UK Services Ltd.</t>
+          <t>Schroders</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -724,22 +724,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Analytics Internship - Undergraduate Placement 2022</t>
+          <t>Machine Learning Lead</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sainsbury’s DTD</t>
+          <t>Samsung Electronics</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in Staines-upon-Thames</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -756,17 +756,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Data Science Consultant</t>
+          <t>Senior Manager, Advanced People Analytics</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Capgemini Invent</t>
+          <t>Wayfair</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -788,22 +788,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Senior Associate Data Scientists</t>
+          <t>Data Science at Elsevier</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Financial Conduct Authority</t>
+          <t>Elsevier</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,29 +813,29 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>1 day ago</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Data Science at Elsevier</t>
+          <t>Senior Associate Data Scientists</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Elsevier</t>
+          <t>Financial Conduct Authority</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -845,24 +845,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>1 day ago</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Visual Analytics Consultant</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Capgemini Invent</t>
+          <t>Adecco UK</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -884,17 +884,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Consultant/ Senior Consultant - Supply Chain Analytics</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Capgemini Invent</t>
+          <t>Oliver James Associates</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -916,17 +916,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Asset Analytics - Consultant/ Senior Consultant /Managing Co...</t>
+          <t>Senior Solution Architect (AI/ML) London, United Kingdom Inf...</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Capgemini Invent</t>
+          <t>Philip Morris International</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -948,22 +948,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Data Science Team Leader - Ecommerce</t>
+          <t>Senior Applied Scientist, Machine Learning, Amazon Transport...</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ocado Group</t>
+          <t>Amazon EU SARL (UK Branch)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hybrid remote in Hatfield</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -973,29 +973,29 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, Tax Technology</t>
+          <t>Analytics Internship - Undergraduate Placement 2022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>eBay Inc.</t>
+          <t>Sainsbury’s DTD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1005,29 +1005,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Senior Applied Scientist - Amazon Advertising EMEA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Morgan McKinley</t>
+          <t>Amazon Dev Centre(Scotland)Ltd</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,29 +1037,29 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ESG Data Scientist</t>
+          <t>Data Science Consultant</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sanderson Recruitment Plc</t>
+          <t>Capgemini Invent</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1069,29 +1069,29 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Principal Data Scientist</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ACCA</t>
+          <t>Talent International</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1101,29 +1101,29 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Sr S&amp;OP Manager</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kin + Carta</t>
+          <t>Amazon UK Services Ltd.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1133,29 +1133,29 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Asset Analytics - Consultant/ Senior Consultant /Managing Co...</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Robert Walters</t>
+          <t>Capgemini Invent</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1165,24 +1165,24 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Statistician</t>
+          <t>Consultant/ Senior Consultant - Supply Chain Analytics</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Carrot Pharma Recruitment</t>
+          <t>Capgemini Invent</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1197,24 +1197,24 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Network Data Scientist 62232</t>
+          <t>Visual Analytics Consultant</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sky</t>
+          <t>Capgemini Invent</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1229,19 +1229,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Senior Data Scientist, Tax Technology</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Shell</t>
+          <t>eBay Inc.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1268,22 +1268,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Network Data Scientist (NOAM) 62274</t>
+          <t>Data Science Team Leader - Ecommerce</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sky</t>
+          <t>Ocado Group</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in Hatfield</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1300,12 +1300,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Product Manager - Applied AI</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Shell</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1332,12 +1332,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Data Science Manager, Growth</t>
+          <t>ESG Data Scientist</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Spotify</t>
+          <t>Sanderson Recruitment Plc</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Temporarily Remote in London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1364,22 +1364,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Senior Manager Team Lead, Business Analytics &amp; Insights, UK</t>
+          <t>Data Science Manager, Growth</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pfizer</t>
+          <t>Spotify</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Walton-on-Thames</t>
+          <t>Temporarily Remote in London</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1396,22 +1396,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Data Science Meteorologist</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LEGO</t>
+          <t>Shell</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1428,22 +1428,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Manager, Data and Analytics, Financial Services - London</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>ACCA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>London E14</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1460,22 +1460,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sr. Data Scientist, Customer &amp; Marketing Analytics, Prime Vi...</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre (London) Ltd</t>
+          <t>Robert Walters</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1492,22 +1492,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Data Science Meteorologist</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Shell</t>
+          <t>Kin + Carta</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1524,17 +1524,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Director - People Analytics &amp; Strategic Workforce Planning C...</t>
+          <t>Statistician</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Capgemini Invent</t>
+          <t>Carrot Pharma Recruitment</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1556,22 +1556,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Head of Analytics and BI Solutions</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Babcock International</t>
+          <t>Morgan McKinley</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Remote in London W1U</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1588,17 +1588,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Marketing Analytics Manager</t>
+          <t>Product Manager - Applied AI</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Virgin Media</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1620,22 +1620,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Health Analytics Senior Consultant</t>
+          <t>Head of Analytics and BI Solutions</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Proclinical</t>
+          <t>Babcock International</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London W1U</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1645,24 +1645,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lead Risk Data Scientist</t>
+          <t>Sr. Data Scientist, Customer &amp; Marketing Analytics, Prime Vi...</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Amazon Dev Centre (London) Ltd</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1677,24 +1677,24 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Network Data Scientist 62232</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Virgin Media</t>
+          <t>Sky</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1709,24 +1709,24 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Senior Data Science Analyst - Management Reporting &amp; Analysi...</t>
+          <t>Network Data Scientist (NOAM) 62274</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>Sky</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1741,29 +1741,29 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Senior Fraud Analyst, Machine Learning</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>LEGO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Temporarily Remote in London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1780,22 +1780,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Director of Statistics and Data Science</t>
+          <t>Senior Manager Team Lead, Business Analytics &amp; Insights, UK</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hobson Prior</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Walton-on-Thames</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1812,17 +1812,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AI Researcher (Fairness) - Executive Director / Vice Preside...</t>
+          <t>Marketing Analytics Manager</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Virgin Media</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1844,17 +1844,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AWM - Data &amp; Analytics - Investment Platform - Data Scientis...</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Virgin Media</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1876,17 +1876,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Data Scientist (Associate or VP) - Applied AI for Global Tec...</t>
+          <t>Director - People Analytics &amp; Strategic Workforce Planning C...</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Capgemini Invent</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1908,22 +1908,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Insight Analyst/ Data Scientist</t>
+          <t>Operational Analytics Team Lead</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Outsource UK</t>
+          <t>Betway Group</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>North London</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1933,24 +1933,24 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>7 days ago</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Equities Machine Learning Quantitative Analyst</t>
+          <t>Insight Analyst/ Data Scientist</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>Outsource UK</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1965,24 +1965,24 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>7 days ago</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Staff Site Reliability Engineer (AG-ZWS)</t>
+          <t>AWM - Data &amp; Analytics - Investment Platform - Data Scientis...</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Zscaler</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1997,24 +1997,24 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>7 days ago</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Fraud Analytics Manager</t>
+          <t>Staff Site Reliability Engineer (AG-ZWS)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Zscaler</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2029,24 +2029,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>7 days ago</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Analytics Strategy Manager</t>
+          <t>Fraud Analytics Manager</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Lloyds Banking Group</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2068,22 +2068,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Executive/Senior Executive - Data Science - Business Modelli...</t>
+          <t>Senior Data Science Analyst - Management Reporting &amp; Analysi...</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>Bloomberg</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>London SE1</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2100,22 +2100,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Manager, Data and Analytics - Insurance</t>
+          <t>Data Scientist (Associate or VP) - Applied AI for Global Tec...</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>London E14</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2132,17 +2132,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Partner Technical Specialist - Data &amp; AI</t>
+          <t>Director of Statistics and Data Science</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>Hobson Prior</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2164,17 +2164,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Lead Risk Data Scientist</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>King.com</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2196,22 +2196,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Senior Analytics Development Engineer - Arcadis Gen</t>
+          <t>Senior Fraud Analyst, Machine Learning</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Arcadis</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Temporarily Remote in London</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2228,17 +2228,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2022 UK Graduate Data Scientist Career Path</t>
+          <t>Equities Machine Learning Quantitative Analyst</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mott MacDonald</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2260,22 +2260,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Health Analytics Senior Consultant</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Centrica</t>
+          <t>Proclinical</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Windsor SL4</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2292,12 +2292,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Product Owner, Regulatory Reporting / Data Science Vice Pres...</t>
+          <t>AI Researcher (Fairness) - Executive Director / Vice Preside...</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Credit Suisse</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2324,22 +2324,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Senior Data Scientist, Europe Data Science Strategy</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Aquent</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2356,22 +2356,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Machine Learning Scientist - NLP &amp; Recommender Systems - Ass...</t>
+          <t>Manager, Data and Analytics - Insurance</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London E14</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2381,29 +2381,29 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>7 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, Europe Data Science Strategy</t>
+          <t>Graduate Data Scientist</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Give A Grad A Go</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2413,29 +2413,29 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>7 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Operational Analytics Team Lead</t>
+          <t>Analytics Strategy Manager</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Betway Group</t>
+          <t>Lloyds Banking Group</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>North London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2445,29 +2445,29 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>7 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Graduate Data Scientist</t>
+          <t>Executive/Senior Executive - Data Science - Business Modelli...</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Give A Grad A Go</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London SE1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2477,46 +2477,46 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>7 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Manager - Machine Learning Engineer</t>
+          <t>Partner Technical Specialist - Data &amp; AI</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>London E14</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>7 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Manager - SAP Analytics Cloud Planning</t>
+          <t>Manager - Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>London SE1</t>
+          <t>London E14</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2541,29 +2541,29 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>7 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Senior Consultant, Data and Analytics - Insurance</t>
+          <t>Senior Analytics Development Engineer - Arcadis Gen</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>Arcadis</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>London E14</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2573,46 +2573,46 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>7 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Senior Consultant - Machine Learning Engineer</t>
+          <t>Product Owner, Regulatory Reporting / Data Science Vice Pres...</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>Credit Suisse</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>London E14</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>7 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Analytics Data Science Lead</t>
+          <t>Director - Capital Markets, Data and Analytics</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>London SE1</t>
+          <t>London E14</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2644,22 +2644,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer - FreeWheel</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Comcast</t>
+          <t>King.com</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>London WC2H</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2676,12 +2676,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Manager - SAP Analytics Cloud Planning</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>career moves group</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London SE1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2708,17 +2708,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AWS Data Scientist</t>
+          <t>Machine Learning Scientist - NLP &amp; Recommender Systems - Ass...</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Opus Recruitment Solutions</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2740,22 +2740,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Applied AI Lead VP - Cross Functional</t>
+          <t>Senior Consultant - Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London E14</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2777,17 +2777,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Huntress</t>
+          <t>Aquent</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2804,22 +2804,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Forensic Data Analytics Assistant Manager</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Centrica</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>Windsor SL4</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2836,22 +2836,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Senior Associate Data Analytics &amp; Insights</t>
+          <t>Analytics Data Science Lead</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Publicis Sapient</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London SE1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2868,7 +2868,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CTO VP Data Scientist</t>
+          <t>Applied AI Lead VP - Cross Functional</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2900,22 +2900,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Applied AI/ML Engineer - Associate</t>
+          <t>Machine Learning Engineer - FreeWheel</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Comcast</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London WC2H</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2932,22 +2932,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Data Scientist - FX Services - Currencies &amp; Emerging Markets...</t>
+          <t>Forensic Data Analytics Assistant Manager</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2957,29 +2957,29 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>10 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Senior Data Science Manager</t>
+          <t>AWS Data Scientist</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Opus Recruitment Solutions</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2989,24 +2989,24 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>10 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Senior Recruiter - Digital, Data &amp; Analytics - D3A - Senior...</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>career moves group</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3021,24 +3021,24 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>10 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Counterparty Credit Risk Data Analytics Senior Analyst</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Citi</t>
+          <t>Huntress</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3053,24 +3053,24 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>10 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>AI Research Scientist</t>
+          <t>CTO VP Data Scientist</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Meta</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3085,24 +3085,24 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>11 days ago</t>
+          <t>10 days ago</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Applied AI/ML Engineer - Associate</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3117,14 +3117,14 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>11 days ago</t>
+          <t>10 days ago</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Manager Data Analytics &amp; Insights</t>
+          <t>Senior Associate Data Analytics &amp; Insights</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3149,29 +3149,29 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>11 days ago</t>
+          <t>10 days ago</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Head of Digital Analytics</t>
+          <t>Senior Data Science Manager</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Virgin Media</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3188,22 +3188,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Head of Data Science</t>
+          <t>Data Scientist - FX Services - Currencies &amp; Emerging Markets...</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Fruition IT</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3220,17 +3220,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Pre-sales Solution Engineer, BI &amp; Analytics - Tableau</t>
+          <t>Counterparty Credit Risk Data Analytics Senior Analyst</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Salesforce</t>
+          <t>Citi</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3252,17 +3252,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Analytics &amp; Insights Lead, WW Commercial Sales</t>
+          <t>Senior Recruiter - Digital, Data &amp; Analytics - D3A - Senior...</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>AWS EMEA SARL (UK Branch)</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3284,17 +3284,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Senior Data Scientist / Data Science Manager</t>
+          <t>Analytics &amp; Insights Lead, WW Commercial Sales</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>AWS EMEA SARL (UK Branch)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3316,22 +3316,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics Senior Risk Manager</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Bank of England</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3373,29 +3373,29 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>11 days ago</t>
+          <t>12 days ago</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer - ASR / Automatic Speech Recogniti...</t>
+          <t>Senior Data Scientist / Data Science Manager</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Zoom</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Remote in London WC1V</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3405,29 +3405,29 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>11 days ago</t>
+          <t>12 days ago</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Health analytics principal</t>
+          <t>Machine Learning Engineer - ASR / Automatic Speech Recogniti...</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Lane Clark &amp; Peacock</t>
+          <t>Zoom</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London WC1V</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3437,24 +3437,24 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>11 days ago</t>
+          <t>12 days ago</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Lead Machine Learning Engineer - Python Spark</t>
+          <t>Health analytics principal</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Client Server</t>
+          <t>Lane Clark &amp; Peacock</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3469,24 +3469,24 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>11 days ago</t>
+          <t>12 days ago</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Lead Machine Learning Engineer - Python Spark</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Bank of England</t>
+          <t>Client Server</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3501,29 +3501,29 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>11 days ago</t>
+          <t>12 days ago</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Software Engineer - C++ / Python - Machine Learning</t>
+          <t>Manager Data Analytics &amp; Insights</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Zoom</t>
+          <t>Publicis Sapient</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Remote in London WC1V</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3533,29 +3533,29 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>11 days ago</t>
+          <t>12 days ago</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Data Science Manager - Commodities - London</t>
+          <t>Data &amp; Analytics Senior Risk Manager</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Morgan McKinley</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3565,29 +3565,29 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>11 days ago</t>
+          <t>12 days ago</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Head of Data Science</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Snapchat</t>
+          <t>Fruition IT</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3604,22 +3604,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Data Scientist &amp; Machine Learning Research Engineer</t>
+          <t>Head of Digital Analytics</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Amazing Prospects Ltd</t>
+          <t>Virgin Media</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Epsom</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3636,17 +3636,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Head of Data Science</t>
+          <t>Pre-sales Solution Engineer, BI &amp; Analytics - Tableau</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Zopa Limited</t>
+          <t>Salesforce</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3668,17 +3668,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Robert Walters</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3700,22 +3700,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Machine Learning/Data Engineer</t>
+          <t>Software Engineer - C++ / Python - Machine Learning</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Explore Group</t>
+          <t>Zoom</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London WC1V</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3732,17 +3732,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>AI Research Scientist</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Explore Group</t>
+          <t>Meta</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3764,17 +3764,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Consultant, Clinical Data Scientist, HealthTech Products Hub...</t>
+          <t>Data Science Manager - Commodities - London</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>Morgan McKinley</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3796,17 +3796,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Head of Data Science</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Fruition IT</t>
+          <t>Zopa Limited</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3821,29 +3821,29 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>12 days ago</t>
+          <t>13 days ago</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Machine Learning/Data Engineer</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Spire Healthcare</t>
+          <t>Explore Group</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Remote in London EC4Y</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3853,29 +3853,29 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>12 days ago</t>
+          <t>13 days ago</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Data Science Teacher Coach Tutor Trainer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Amazing Prospects Ltd</t>
+          <t>De Beers Group of Companies</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London EC1N</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3885,29 +3885,29 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>12 days ago</t>
+          <t>13 days ago</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Consultant, Clinical Data Scientist, HealthTech Products Hub...</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>De Beers Group of Companies</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>London EC1N</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3917,24 +3917,24 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>12 days ago</t>
+          <t>13 days ago</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>IQVIA</t>
+          <t>Explore Group</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3949,24 +3949,24 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>12 days ago</t>
+          <t>13 days ago</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Data Scientist - ESG Quant Strategy</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>Robert Walters</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3988,17 +3988,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Credit Manager (Analytics)</t>
+          <t>Data Scientist - ESG Quant Strategy</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Revolut</t>
+          <t>Bloomberg</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4020,17 +4020,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Associate Director in Machine Learning and Computational Bio...</t>
+          <t>Credit Manager (Analytics)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MSD</t>
+          <t>Revolut</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4052,22 +4052,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Lead Data Scientist (Credit)</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Spire Healthcare</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London EC4Y</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4084,22 +4084,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Principal - Data Science</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Just eat Takeaway.com</t>
+          <t>Fruition IT</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Temporarily Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4116,22 +4116,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Research Assistant / Associate in Human-in-the-loop, Machine...</t>
+          <t>Data Scientist &amp; Machine Learning Research Engineer</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Imperial College London</t>
+          <t>Amazing Prospects Ltd</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>South Kensington</t>
+          <t>Epsom</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4148,22 +4148,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Junior Machine Learning Engineer - HealthTech</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Client Server</t>
+          <t>IQVIA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4180,17 +4180,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Vodafone</t>
+          <t>Snapchat</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4212,22 +4212,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Head of Data Science &amp; Machine Learning</t>
+          <t>Data Science Teacher Coach Tutor Trainer</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Simply Business</t>
+          <t>Amazing Prospects Ltd</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4244,17 +4244,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Data Analytics Lead</t>
+          <t>Recruiting Manager, International Data Science</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Ascenti</t>
+          <t>Meta</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>13 days ago</t>
+          <t>14 days ago</t>
         </is>
       </c>
     </row>
@@ -4301,29 +4301,29 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>13 days ago</t>
+          <t>14 days ago</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Manager - Advanced Analytics</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MARS</t>
+          <t>Vodafone</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Slough SL1</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4333,29 +4333,29 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>13 days ago</t>
+          <t>14 days ago</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Data Science Manager</t>
+          <t>Principal - Data Science</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Just eat Takeaway.com</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>Temporarily Remote in London</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4365,14 +4365,14 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>13 days ago</t>
+          <t>14 days ago</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sr. Data Scientist, Demand Forecasting</t>
+          <t>Analytics Data Scientist, Demand Forecasting</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4404,17 +4404,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Analytics Data Scientist, Demand Forecasting</t>
+          <t>Head of Data Science &amp; Machine Learning</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Amazon UK Services Ltd.</t>
+          <t>Simply Business</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4436,22 +4436,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Senior Manager, Product Owner Analytics &amp; BI</t>
+          <t>Sr. Data Scientist, Demand Forecasting</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Amazon UK Services Ltd.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4468,22 +4468,22 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Associate, Quantitative Financial Analyst</t>
+          <t>Research Assistant / Associate in Human-in-the-loop, Machine...</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CDC Group</t>
+          <t>Imperial College London</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>South Kensington</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4500,22 +4500,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Lead Statistician</t>
+          <t>Data Science Manager</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Marks &amp; Spencer</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4532,22 +4532,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Principal Data Scientist</t>
+          <t>Data Analytics Lead</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sage</t>
+          <t>Ascenti</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4564,22 +4564,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Senior Actuary - Machine Learning &amp; Predictive Analytics</t>
+          <t>Junior Machine Learning Engineer - HealthTech</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Eames Consulting</t>
+          <t>Client Server</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4596,17 +4596,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Applied AI / ML Lead - Solutions for Digital &amp; Platform Serv...</t>
+          <t>Lead Data Scientist (Credit)</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4621,29 +4621,29 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>15 days ago</t>
+          <t>14 days ago</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Applied Scientist, Commerce Optimisation</t>
+          <t>Manager - Advanced Analytics</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre (London) Ltd</t>
+          <t>MARS</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Slough SL1</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4653,24 +4653,24 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>15 days ago</t>
+          <t>14 days ago</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Fixed Income Machine Learning Quantitative Analyst</t>
+          <t>Senior Actuary - Machine Learning &amp; Predictive Analytics</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>Eames Consulting</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4685,24 +4685,24 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>16 days ago</t>
+          <t>15 days ago</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Machine Learning Quantitative Analyst</t>
+          <t>Lead Statistician</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>Marks &amp; Spencer</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4717,24 +4717,24 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>18 days ago</t>
+          <t>15 days ago</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Data Scientist, Contextual Ads</t>
+          <t>Associate, Quantitative Financial Analyst</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre (London) Ltd</t>
+          <t>CDC Group</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4749,29 +4749,29 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>18 days ago</t>
+          <t>15 days ago</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer (Google Cloud Markets)</t>
+          <t>Principal Data Scientist</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Vodafone</t>
+          <t>Sage</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4781,29 +4781,29 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>18 days ago</t>
+          <t>15 days ago</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Senior Manager, Product Owner Analytics &amp; BI</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Marks &amp; Spencer</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4813,24 +4813,24 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>18 days ago</t>
+          <t>15 days ago</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>C12 Data Scientist</t>
+          <t>Senior Consultant- Intelligent Automation - Glasgow</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Citi</t>
+          <t>Capgemini Invent</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4845,24 +4845,24 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>18 days ago</t>
+          <t>16 days ago</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Senior Analytics and Media Manager, Industry Expert</t>
+          <t>Applied AI / ML Lead - Solutions for Digital &amp; Platform Serv...</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Amazon Online UK Limited</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4877,24 +4877,24 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>18 days ago</t>
+          <t>16 days ago</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Python Software Engineering - Data Science Projects - B and...</t>
+          <t>Applied Scientist, Commerce Optimisation</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Amazon Dev Centre (London) Ltd</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4909,24 +4909,24 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>18 days ago</t>
+          <t>16 days ago</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Senior Applied Machine Learning Scientist</t>
+          <t>Fixed Income Machine Learning Quantitative Analyst</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Zimmer Biomet</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4941,29 +4941,29 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>19 days ago</t>
+          <t>17 days ago</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Senior Marketing Data Scientist</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>NatWest Group</t>
+          <t>Betway Group</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>North London</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4980,17 +4980,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Customer Engineer Specialist, Machine Learning</t>
+          <t>Python Software Engineering - Data Science Projects - B and...</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Google</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5012,22 +5012,22 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Senior Analytics and Media Manager, Industry Expert</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Amazon Online UK Limited</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5044,12 +5044,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Software Engineering - Data Science Projects</t>
+          <t>Machine Learning Engineer (Google Cloud Markets)</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Vodafone</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5076,22 +5076,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Fraud and Financial Crime Analytics Manager</t>
+          <t>C12 Data Scientist</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Citi</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5108,22 +5108,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Scientist, Contextual Ads</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Betway Group</t>
+          <t>Amazon Dev Centre (London) Ltd</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>North London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5140,17 +5140,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, Personalisation</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Holland &amp; Barrett</t>
+          <t>Marks &amp; Spencer</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5172,22 +5172,22 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Senior Data Scientist, Personalisation</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Holland &amp; Barrett</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5204,22 +5204,22 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Python Developer / Machine Learning Engineer</t>
+          <t>Machine Learning Quantitative Analyst</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Client Server</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5261,19 +5261,19 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>19 days ago</t>
+          <t>20 days ago</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Data Scientist, Analytics II</t>
+          <t>Senior Technical Project Manager - Data Analytics Technology</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Expedia Group</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>London EC1V</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5293,24 +5293,24 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>19 days ago</t>
+          <t>20 days ago</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Head of Data Science</t>
+          <t>Analytics &amp; Data Science Lead</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Robert Walters</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5325,19 +5325,19 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>19 days ago</t>
+          <t>20 days ago</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Senior Technical Project Manager - Data Analytics Technology</t>
+          <t>Data Scientist, Analytics II</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Expedia Group</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London EC1V</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5357,29 +5357,29 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>19 days ago</t>
+          <t>20 days ago</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Analytics &amp; Data Science Lead</t>
+          <t>Python Developer / Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Client Server</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5389,24 +5389,24 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>19 days ago</t>
+          <t>20 days ago</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Data Science Degree Apprenticeship EC1-2</t>
+          <t>Software Engineering - Data Science Projects</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Amey plc</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5433,17 +5433,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Eames Consulting</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5460,22 +5460,22 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Global Senior Analytics and Media Manager</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Amazon Online UK Limited</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5492,22 +5492,22 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Testing Data Scientist</t>
+          <t>Fraud and Financial Crime Analytics Manager</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5524,22 +5524,22 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Senior ML Engineer</t>
+          <t>Senior Marketing Data Scientist</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>NatWest Group</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5556,17 +5556,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics Manager (Deals Insights &amp; Analytics)</t>
+          <t>Head of Data Science</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Robert Walters</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5588,17 +5588,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Senior Data Scientist: Forecasting</t>
+          <t>Senior Applied Machine Learning Scientist</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Field</t>
+          <t>Zimmer Biomet</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5620,22 +5620,22 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Financial Modelling Senior Manager (Deals Insights &amp; Analyti...</t>
+          <t>Finance Analytics - Data Scientist</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>MARS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Slough SL1</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5645,29 +5645,29 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>20 days ago</t>
+          <t>21 days ago</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Associate Principal, Data Science Strategy Consulting - EU W...</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Department for Work and Pensions</t>
+          <t>IQVIA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5677,24 +5677,24 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>20 days ago</t>
+          <t>21 days ago</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Associate Principal, Data Science Strategy Consulting - EU W...</t>
+          <t>Global Senior Analytics and Media Manager</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>IQVIA</t>
+          <t>Amazon Online UK Limited</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5709,24 +5709,24 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>20 days ago</t>
+          <t>21 days ago</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Data Scientist III, Analytics</t>
+          <t>Financial Modelling Senior Manager (Deals Insights &amp; Analyti...</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Egencia</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5741,29 +5741,29 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>20 days ago</t>
+          <t>21 days ago</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Lead Decision Scientist</t>
+          <t>Senior ML Engineer</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Vanquis Bank</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5780,17 +5780,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Senior Applied Scientist - Video Advertising, Vivid (Video C...</t>
+          <t>Testing Data Scientist</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre(Scotland)Ltd</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5812,22 +5812,22 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>AI/ML Engineer</t>
+          <t>Lecturer - Data Science and Analytics</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>University of Westminster</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5844,22 +5844,22 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Analytics - Senior Associate / Manager</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Department for Work and Pensions</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5876,17 +5876,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Customer Analytics Data Scientist, Manager</t>
+          <t>Data Science Degree Apprenticeship EC1-2</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Amey plc</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5908,17 +5908,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Lecturer - Data Science and Analytics</t>
+          <t>Data &amp; Analytics Manager (Deals Insights &amp; Analytics)</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>University of Westminster</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5940,17 +5940,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics Senior Associate (Deals Insights &amp; Analytic...</t>
+          <t>Data Scientist III, Analytics</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Egencia</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5972,12 +5972,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Customer Analytics Data Scientist Senior Associate</t>
+          <t>Senior Data Scientist: Forecasting</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Field</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6004,22 +6004,22 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Finance Analytics - Data Scientist</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MARS</t>
+          <t>Eames Consulting</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Slough SL1</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6036,17 +6036,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Advanced Analytics - Manager</t>
+          <t>Lead Decision Scientist</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Vanquis Bank</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -6061,29 +6061,29 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>21 days ago</t>
+          <t>22 days ago</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>IT&amp;D Director, Global Data and Analytics</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Reckitt</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Slough SL1</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6093,24 +6093,24 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>21 days ago</t>
+          <t>22 days ago</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Solutions Architect - AI &amp; Machine Learning</t>
+          <t>Financial Modelling Manager (Deals Insights &amp; Analytics)</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -6125,14 +6125,14 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>21 days ago</t>
+          <t>22 days ago</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Data Science Consultant - Artificial Intelligence Advisory</t>
+          <t>Customer Analytics Data Scientist Senior Associate</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6157,29 +6157,29 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>21 days ago</t>
+          <t>22 days ago</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Data Scientist Apprentice</t>
+          <t>AI/ML Engineer</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>QA Apprenticeships</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>London SE1</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6189,24 +6189,24 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>21 days ago</t>
+          <t>22 days ago</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Head of Analytics</t>
+          <t>Data Science Consultant - Artificial Intelligence Advisory</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6221,29 +6221,29 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>21 days ago</t>
+          <t>22 days ago</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>IT&amp;D Director, Global Data and Analytics</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Reckitt</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Slough SL1</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6253,24 +6253,24 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>21 days ago</t>
+          <t>22 days ago</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Consultant/ Senior Consultant- Intelligent Automation</t>
+          <t>Financial Modelling Senior Associate (Deals Insights &amp; Analy...</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Capgemini Invent</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6285,24 +6285,24 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>21 days ago</t>
+          <t>22 days ago</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Financial Modelling Manager (Deals Insights &amp; Analytics)</t>
+          <t>Head of Analytics</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6317,19 +6317,19 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>21 days ago</t>
+          <t>22 days ago</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Financial Modelling Senior Associate (Deals Insights &amp; Analy...</t>
+          <t>Machine Learning Full-Stack Engineer [London Job Post]</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Royal Bank of Canada</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London EC2M</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6349,24 +6349,24 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>21 days ago</t>
+          <t>22 days ago</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Healthcare Analytics Senior Manager</t>
+          <t>Consultant/ Senior Consultant- Intelligent Automation</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Capgemini Invent</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6381,24 +6381,24 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>21 days ago</t>
+          <t>22 days ago</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Machine Learning Research Scientist</t>
+          <t>Director - Analytics &amp; AI</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Capgemini Invent</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6413,19 +6413,19 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>21 days ago</t>
+          <t>22 days ago</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Manager, Lead Data Scientist, HealthTech Products Hub, SAMA,...</t>
+          <t>Healthcare Analytics Senior Manager</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6452,17 +6452,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Senior Analyst - Decision Scientist</t>
+          <t>Analytics - Senior Associate / Manager</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Vanquis Bank</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -6484,17 +6484,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Senior Applied Scientist - Video Advertising, Vivid (Video C...</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Amazon Dev Centre(Scotland)Ltd</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6516,22 +6516,22 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Customer Analytics Data Scientist, Manager</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MARS</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Slough SL1+1 location</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -6548,22 +6548,22 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Data Science Manager</t>
+          <t>Solutions Architect - AI &amp; Machine Learning</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Vanquis Bank</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -6580,17 +6580,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2022 Bloomberg Apprenticeship: Artificial Intelligence Level...</t>
+          <t>Data &amp; Analytics Senior Associate (Deals Insights &amp; Analytic...</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6612,12 +6612,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Advanced Analytics - Manager</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ACCOR</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>London W6</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6644,22 +6644,22 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Big Data Engineer</t>
+          <t>Manager, Lead Data Scientist, HealthTech Products Hub, SAMA,...</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>PokerStars</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>London W1B</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6669,29 +6669,29 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>22 days ago</t>
+          <t>23 days ago</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Director AI/ML Engineer for Computer Vision</t>
+          <t>2022 Bloomberg Apprenticeship: Artificial Intelligence Level...</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Bloomberg</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6701,29 +6701,29 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>22 days ago</t>
+          <t>23 days ago</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Computer Vision Research Scientist</t>
+          <t>Director AI/ML Engineer for Computer Vision</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6733,29 +6733,29 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>22 days ago</t>
+          <t>23 days ago</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sr. Manager, Analytics, Amazon Ads</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Amazon Online UK Limited</t>
+          <t>ACCOR</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London W6</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -6765,29 +6765,29 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>22 days ago</t>
+          <t>23 days ago</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Healthcare Analytics Manager</t>
+          <t>Big Data Engineer</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>PokerStars</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London W1B</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -6797,19 +6797,19 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>24 days ago</t>
+          <t>23 days ago</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Postdoctoral Scientist - Machine Learning, [UK]</t>
+          <t>Sr. Manager, Analytics, Amazon Ads</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre (London) Ltd</t>
+          <t>Amazon Online UK Limited</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6829,24 +6829,24 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>24 days ago</t>
+          <t>23 days ago</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Principal/Senior Principal, Data Science Strategy Consulting...</t>
+          <t>Senior Analyst - Decision Scientist</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>IQVIA</t>
+          <t>Vanquis Bank</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6861,29 +6861,29 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>24 days ago</t>
+          <t>23 days ago</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Aviva</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -6893,29 +6893,29 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>25 days ago</t>
+          <t>23 days ago</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Tech Lead Machine Learning Data Engineer - Recommendations (...</t>
+          <t>Data Science Manager</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Shopify</t>
+          <t>Vanquis Bank</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -6925,29 +6925,29 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>25 days ago</t>
+          <t>23 days ago</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Postdoctoral Training Fellow in Data Science (ID:207)</t>
+          <t>Computer Vision Research Scientist</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>The Institute of Cancer Research</t>
+          <t>Harnham</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Sutton SM2</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6957,24 +6957,24 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>25 days ago</t>
+          <t>23 days ago</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Machine Learning Scientist - Recruiting Engine</t>
+          <t>Principal/Senior Principal, Data Science Strategy Consulting...</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Amazon Dev Centre(Scotland)Ltd</t>
+          <t>IQVIA</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6996,17 +6996,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Big Data Software Engineer</t>
+          <t>Healthcare Analytics Manager</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Henderson Scott</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -7028,22 +7028,22 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Postdoctoral Scientist - Machine Learning, [UK]</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Knight Frank</t>
+          <t>Amazon Dev Centre (London) Ltd</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>London W1U</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7060,22 +7060,22 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, Experience</t>
+          <t>Tech Lead Machine Learning Data Engineer - Recommendations (...</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Spotify</t>
+          <t>Shopify</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Temporarily Remote in London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -7085,29 +7085,29 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>25 days ago</t>
+          <t>26 days ago</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Data Scientist - Python, Wholesale Banking Advanced Analytic...</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Michael Page UK</t>
+          <t>Aviva</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -7124,17 +7124,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Business Analytics Ld Analyst</t>
+          <t>Big Data Software Engineer</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Citi</t>
+          <t>Henderson Scott</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -7156,22 +7156,22 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Director - Intelligent Industry Analytics</t>
+          <t>Postdoctoral Training Fellow in Data Science (ID:207)</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Capgemini Invent</t>
+          <t>The Institute of Cancer Research</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Sutton SM2</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -7188,22 +7188,22 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Data Scientist - Medical Technologies</t>
+          <t>Machine Learning Scientist - Recruiting Engine</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Robert Walters</t>
+          <t>Amazon Dev Centre(Scotland)Ltd</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7220,22 +7220,22 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Technical Program Manager - Applied AI</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Knight Frank</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London W1U</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -7252,22 +7252,22 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Data Engineer - SQL, Wholesale Banking Advanced Analytics</t>
+          <t>Senior Data Scientist, Experience</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Michael Page UK</t>
+          <t>Spotify</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Hybrid remote in London</t>
+          <t>Temporarily Remote in London</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -7284,17 +7284,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Senior Data Scientist Chemicals</t>
+          <t>Director - Intelligent Industry Analytics</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Risk Solutions</t>
+          <t>Capgemini Invent</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7316,17 +7316,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Data Science Lead</t>
+          <t>Technical Program Manager - Applied AI</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Eames Consulting</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7348,22 +7348,22 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Senior Applied Research Scientist - Applied Innovation of AI</t>
+          <t>Data Scientist - Medical Technologies</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>JPMorgan Chase Bank, N.A.</t>
+          <t>Robert Walters</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -7380,22 +7380,22 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Teaching Fellow Position in Geo-Energy with Data Science and...</t>
+          <t>Data Engineer - SQL, Wholesale Banking Advanced Analytics</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Imperial College London</t>
+          <t>Michael Page UK</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>South Kensington</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -7412,12 +7412,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Statistician (Consumer data) / Data Scientist</t>
+          <t>Business Analytics Ld Analyst</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Mintel</t>
+          <t>Citi</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7427,7 +7427,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Temporarily Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -7444,22 +7444,22 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Data Scientist - Python, Wholesale Banking Advanced Analytic...</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Capita</t>
+          <t>Michael Page UK</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Hybrid remote in London</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -7476,22 +7476,22 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Machine Learning - Engineering Director</t>
+          <t>Teaching Fellow Position in Geo-Energy with Data Science and...</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Facebook App</t>
+          <t>Imperial College London</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>South Kensington</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -7501,29 +7501,29 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>27 days ago</t>
+          <t>28 days ago</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Statistician (Consumer data) / Data Scientist</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>QBE</t>
+          <t>Mintel</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Temporarily Remote in London</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -7533,29 +7533,29 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>27 days ago</t>
+          <t>28 days ago</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Internal Audit, Data Analytics Analyst</t>
+          <t>Senior Applied Research Scientist - Applied Innovation of AI</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>BlackRock</t>
+          <t>JPMorgan Chase Bank, N.A.</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>London EC4R</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -7565,24 +7565,24 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>27 days ago</t>
+          <t>28 days ago</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Head of Data Science &amp; Data Analytics</t>
+          <t>Data Science Lead</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Oliver James Associates</t>
+          <t>Eames Consulting</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7604,17 +7604,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Senior Data Scientist Chemicals</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Eames Consulting</t>
+          <t>Risk Solutions</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7636,22 +7636,22 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Senior Data Machine Learning Platform Engineer (Remote, Euro...</t>
+          <t>Machine Learning - Engineering Director</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Shopify</t>
+          <t>Facebook App</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Remote in London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7668,17 +7668,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Head of Data Science</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Capita</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7700,22 +7700,22 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Global Director of Data Science – Luxury Fashion Retailer</t>
+          <t>Head of Data Science</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Salt Recruitment</t>
+          <t>Ovo Energy Limited</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Greater London</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7732,22 +7732,22 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>One Demand Data Analytics (ODDA) Senior Data Products Lead</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>MARS</t>
+          <t>QBE</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>London W1D+1 location</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -7796,22 +7796,22 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Senior Data Scientist Engineer</t>
+          <t>Internal Audit, Data Analytics Analyst</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Eames Consulting</t>
+          <t>BlackRock</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London EC4R</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7828,22 +7828,22 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Senior Manager, Data and Analytics, Financial Services - Lon...</t>
+          <t>Senior Data Machine Learning Platform Engineer (Remote, Euro...</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>Shopify</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>London E14</t>
+          <t>Remote in London</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -7853,24 +7853,24 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>28 days ago</t>
+          <t>29 days ago</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Head of Data Science</t>
+          <t>Digital Audit Advanced Analytics Senior Manager</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Ovo Energy Limited</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7885,29 +7885,29 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>28 days ago</t>
+          <t>29 days ago</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Digital Audit Advanced Analytics Senior Manager</t>
+          <t>Quantitative developer</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>Centrica</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Windsor SL4</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7917,29 +7917,29 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>28 days ago</t>
+          <t>29 days ago</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Quantitative developer</t>
+          <t>Global Director of Data Science – Luxury Fashion Retailer</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Centrica</t>
+          <t>Salt Recruitment</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Windsor SL4</t>
+          <t>Greater London</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7949,19 +7949,19 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>28 days ago</t>
+          <t>29 days ago</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Consultant, Design Quality Engineer, Healthcare Analytics, C...</t>
+          <t>Senior Manager, Data and Analytics, Financial Services - Lon...</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>London E14</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -7981,24 +7981,24 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>28 days ago</t>
+          <t>29 days ago</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Product Data Scientist</t>
+          <t>Head of Data Science &amp; Data Analytics</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Harnham</t>
+          <t>Oliver James Associates</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -8020,32 +8020,256 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
+          <t>Senior Data Scientist Engineer</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Eames Consulting</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>29 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Head of Data Science</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Jacobs</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>29 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Consultant, Design Quality Engineer, Healthcare Analytics, C...</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>29 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>One Demand Data Analytics (ODDA) Senior Data Products Lead</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>MARS</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>London W1D+1 location</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>29 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Lead Data Scientist</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Eames Consulting</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>29 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Lead Data Scientist, Climate &amp; Data Technology</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>NatWest Group</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>30 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Product Data Scientist</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Harnham</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>30 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
           <t>Senior Associate, Data Science</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t>Bain &amp; Company</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>London</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>29 days ago</t>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>30 days ago</t>
         </is>
       </c>
     </row>
